--- a/Result_Metric_Table.xlsx
+++ b/Result_Metric_Table.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvasquez\Documents\GitHub\CapstoneA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B63DDA6E-1EEE-4441-8E85-6FA26E6704CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7CD079-DD7A-489D-B235-1E1E8B0B9AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="2085" windowWidth="30240" windowHeight="13515" xr2:uid="{DFA01DCF-78FA-4445-8BC6-812889780980}"/>
+    <workbookView xWindow="3255" yWindow="1800" windowWidth="20175" windowHeight="13500" xr2:uid="{DFA01DCF-78FA-4445-8BC6-812889780980}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metrics Compare" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Matrix" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="43">
   <si>
     <t>Accuracy</t>
   </si>
@@ -76,13 +80,97 @@
   </si>
   <si>
     <t>Resampling Type</t>
+  </si>
+  <si>
+    <t>Jump Ahead 30</t>
+  </si>
+  <si>
+    <t>Jump Ahead 25</t>
+  </si>
+  <si>
+    <t>Jump Ahead 20</t>
+  </si>
+  <si>
+    <t>Jump Ahead 15</t>
+  </si>
+  <si>
+    <t>Window Size = 10</t>
+  </si>
+  <si>
+    <t>Jump Ahead 10</t>
+  </si>
+  <si>
+    <t>Window Size = 20</t>
+  </si>
+  <si>
+    <t>Window Size = 30</t>
+  </si>
+  <si>
+    <t>Window Size = 40</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>t-3</t>
+  </si>
+  <si>
+    <t>t-2</t>
+  </si>
+  <si>
+    <t>t-1</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>t+1</t>
+  </si>
+  <si>
+    <t>Window Size = 5</t>
+  </si>
+  <si>
+    <t>Jump Ahead</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>True Negative</t>
+  </si>
+  <si>
+    <t>False Negative</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>False Positive</t>
+  </si>
+  <si>
+    <t>True Positive</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Actual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +193,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +233,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -148,23 +267,328 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,43 +900,2472 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8065D529-6E91-4850-8CCF-BF64EF29D189}">
-  <dimension ref="B2:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1866908B-3D73-4341-985D-7874132F9E2D}">
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="T2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="7"/>
+      <c r="Z2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AF2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="I3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="13"/>
+      <c r="O3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="U3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="12"/>
+      <c r="AA3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AG3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.98965999999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.97790999999999995</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.98811000000000004</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.98297999999999996</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.98638999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.97685</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.97816000000000003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.97750999999999999</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.72567046561877702</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.52830188679245205</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.726529983043E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.34378265412748E-2</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.72735361410049904</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.59848484848484795</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2.4356405117928099E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4.6807880314027502E-2</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.72661016949152502</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.54521963824289399</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3.2526591644828101E-2</v>
+      </c>
+      <c r="X5" s="1">
+        <v>6.1390747745126498E-2</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0.72573946944656298</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0.51748251748251695</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>3.4222290735316699E-2</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>6.4198958935801007E-2</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0.72211391761315402</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0.42647058823529399</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>3.1293355942654498E-2</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>5.83082004882952E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.97823000000000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.97611999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.95126999999999995</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.96353</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.72592467059272103</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.56923076923076898</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.14074302451055E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.2366631403959399E-2</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.72659096686721403</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.56204379562043705</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2.3739787266841301E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4.5555391214317398E-2</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.72567796610169399</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.51515151515151503</v>
+      </c>
+      <c r="W6" s="1">
+        <v>3.4068136272544999E-2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>6.3909774436090194E-2</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0.725400457665903</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.50746268656716398</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>3.6688762139663898E-2</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>6.8430132259919396E-2</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0.724487201220545</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0.48664122137404497</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>3.9309388006782797E-2</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>7.2742832691484793E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.674532898360377</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.296422487223168</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.13411438261137601</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.184674166843557</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.65977459537327299</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.285157337788916</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.15785416987821799</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.203214923595951</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.66754237288135598</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.30434782608695599</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0.16294126714968399</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0.21224899598393501</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0.65560640732265396</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0.28952772073921901</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0.17388623400647399</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0.21727824328228801</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0.67278352263095398</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0.30826600372902402</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0.15292122706952299</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0.204430705821741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.98004000000000002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.95852999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.96931999999999996</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.96389000000000002</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.97577999999999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.95408000000000004</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.95775999999999994</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.95591000000000004</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.72661413319776302</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.53046594982078799</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4.5629720980422298E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>8.4031227821149704E-2</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.72948354022793704</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.56472081218274095</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>6.8598735933405194E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.12233676975945</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.73318927164103198</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0.60626398210290799</v>
+      </c>
+      <c r="W10" s="1">
+        <v>8.3551718822259896E-2</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0.14686356862213701</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0.72948006271452104</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0.55519828510182201</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>7.9852011715739094E-2</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0.13962264150943399</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.72712632961817103</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0.525316455696202</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>7.67689224603052E-2</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0.133960995292535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.95284999999999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.91210999999999998</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.91674999999999995</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.91442999999999997</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.72453821386205697</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.49237029501525897</v>
+      </c>
+      <c r="K11" s="1">
+        <v>7.4610759981501407E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.12958500669344</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.72728043045375501</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.52208480565370996</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>9.1105287498073007E-2</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.15513846961543501</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.72674886657344995</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.51338028169014005</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.112378603360567</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.18439357531301301</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0.72621721259375305</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0.50906555090655503</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0.11253275782333801</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0.18432016159575801</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0.72411747256007097</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>0.492379058979456</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0.114536765839371</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>0.18584292146073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.66950516861548803</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.34591932457786101</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.227377832588253</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.27439307971351501</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.679701732830572</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.35126143609647897</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.19531370433174</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.25104022191400799</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.66675140883860795</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.32122470160871802</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.19084322491136099</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.23943525771202001</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0.67100300860205897</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0.31907055823179298</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0.17357792508093101</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0.224840255591054</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0.68449379158367496</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0.37116729424421702</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0.21273315862494199</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>0.27045565899069002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.86704000000000003</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.85673999999999995</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.86185999999999996</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.92081000000000002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.86646999999999996</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.84345999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.85480999999999996</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.74403728023723703</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.62218561230093306</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.17465700632033199</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.272749157438613</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.74275546517539404</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.62928348909657295</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.155696007399414</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.24962926347009301</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.74485213117532401</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0.63864042933810306</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.165099429628487</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.26237138657520798</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0.74394067796610097</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0.63230035756853398</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0.16355788500077001</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0.25988977342314701</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.89532</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.86584000000000005</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.73514999999999997</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.79515999999999998</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.73848760855750895</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.55229846768820701</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.25558809927547399</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.349457266308357</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.74000169462802901</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.55764163372858999</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.260983505472483</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.35556022261892201</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0.73841199898313703</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.55292526208995596</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.25204254663172498</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.34625158831003799</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0.73805084745762695</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0.55058043117744604</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0.255896408201017</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0.34940012628920197</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.72039822071595006</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.48185030517185901</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.23123169415754499</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.67865615997288598</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.363568588469184</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.225527979034993</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.27837503567690902</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.701042284552156</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0.42471553320984301</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0.247417912748574</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.312682641729982</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0.67076271186440595</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0.34902329959990502</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0.22861106829042699</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0.27626676602086397</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.71409</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.74399000000000004</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.82008999999999999</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.75185000000000002</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.53491</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.62509000000000003</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.77954757265102004</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.65703794369644997</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.41375057807923499</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.50775633749527005</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.78415589917390305</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.69279778393351799</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.385540311392014</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.49539467168465801</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.77596068296402998</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0.69470607340045398</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0.32973639586865999</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0.44720886472924898</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0.77208592856234903</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0.68247694334650799</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0.31940804686295599</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0.43515698834400901</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.86182999999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.78947000000000001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.69169000000000003</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.73734999999999995</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.77204947894603004</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.61786018755328198</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.44689378757515003</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.51865104213256996</v>
+      </c>
+      <c r="M21" s="13"/>
+      <c r="N21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.77415801736920098</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.62188949810206595</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.454601510713735</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0.52524712797221396</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0.77375757318984795</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0.62209921226314602</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0.45043934021889898</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.52253218884120101</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0.77068768272530797</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0.615417650848185</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0.44180669030368402</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0.51435750179468698</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.72464627637041401</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.49833290587329998</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.299522121165407</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.37415751973810801</v>
+      </c>
+      <c r="M22" s="13"/>
+      <c r="N22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.671086634187672</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.38748898678414001</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.33898566363496202</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.361618154908732</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0.70986738973859198</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.461766574878203</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.33605672884229998</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.38900785153461798</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0.724206601415194</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0.49774866966844</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0.37490365346076698</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0.427679592016178</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G24" s="13"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G25" s="13"/>
+      <c r="H25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.83187190240182995</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.71782006920415198</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.639586866039771</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.67644900953778397</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.83190714225196905</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.73484989744545903</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.60752273778325805</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.66514767932489405</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.831299779698356</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.73699148533585601</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0.60043163249576004</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.66173972137274895</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0.82789594102194697</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0.74293728711680995</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0.57160474795745297</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0.64610559330893802</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G26" s="13"/>
+      <c r="H26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.82471300885330601</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.700940975192472</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.63157083397564295</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.66445021083360301</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.82775565534186202</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.70667577257981895</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.63804532141205395</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.67060920285158698</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.82587697000508298</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.70222902841585799</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0.63619546785879399</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0.66758330637334196</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0.82526904499618603</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0.70374202448697998</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0.62910436257129598</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0.66433338759563698</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G27" s="13"/>
+      <c r="H27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.74956580675223405</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.54933928264973397</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.49344843533220201</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.51989605327269695</v>
+      </c>
+      <c r="M27" s="13"/>
+      <c r="N27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.72087604846225495</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.49147157190635399</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.45305996608601801</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.47148471965990202</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.75999830537197</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.57760574018126798</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0.47155850161862101</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.519222608843248</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0.78641640538937296</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0.64322503961965105</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0.50053954061970096</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0.56298222800173303</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="M29" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="AG24:AJ24"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="AG19:AJ19"/>
+    <mergeCell ref="AA9:AD9"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="AA19:AD19"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="U9:X9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05187551-0282-496A-8655-F60B504C2041}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.72735361410049904</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.59848484848484795</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.4356405117928099E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.6807880314027502E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.72659096686721403</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.56204379562043705</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.3739787266841301E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.5555391214317398E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.65977459537327299</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.285157337788916</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.15785416987821799</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.203214923595951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.72948354022793704</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.56472081218274095</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.8598735933405194E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.12233676975945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.72728043045375501</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.52208480565370996</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9.1105287498073007E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.15513846961543501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.679701732830572</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.35126143609647897</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.19531370433174</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.25104022191400799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.74275546517539404</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.62928348909657295</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.155696007399414</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.24962926347009301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.74000169462802901</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.55764163372858999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.260983505472483</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.35556022261892201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.67865615997288598</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.363568588469184</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.225527979034993</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.27837503567690902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.78415589917390305</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.69279778393351799</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.385540311392014</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.49539467168465801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.77415801736920098</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.62188949810206595</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.454601510713735</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.52524712797221396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.671086634187672</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.38748898678414001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.33898566363496202</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.361618154908732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.83190714225196905</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.73484989744545903</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.60752273778325805</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.66514767932489405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.82775565534186202</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.70667577257981895</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.63804532141205395</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.67060920285158698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.72087604846225495</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.49147157190635399</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.45305996608601801</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.47148471965990202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70641C4-90FF-4278-A8CC-A5288250D1D8}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8065D529-6E91-4850-8CCF-BF64EF29D189}">
+  <dimension ref="B2:N21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I3" t="s">
@@ -536,422 +3389,422 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>0.98638999999999999</v>
+        <v>0.98965999999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>0.97685</v>
+        <v>0.97790999999999995</v>
       </c>
       <c r="E4" s="1">
-        <v>0.97816000000000003</v>
+        <v>0.98811000000000004</v>
       </c>
       <c r="F4" s="1">
-        <v>0.97750999999999999</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4">
-        <v>0.98638999999999999</v>
-      </c>
-      <c r="L4">
-        <v>0.97685</v>
-      </c>
-      <c r="M4">
-        <v>0.97816000000000003</v>
-      </c>
-      <c r="N4">
-        <v>0.97750999999999999</v>
+        <v>0.98297999999999996</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>0.97823000000000004</v>
+        <v>0.98638999999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>0.97611999999999999</v>
+        <v>0.97685</v>
       </c>
       <c r="E5" s="1">
-        <v>0.95126999999999995</v>
+        <v>0.97816000000000003</v>
       </c>
       <c r="F5" s="1">
-        <v>0.96353</v>
+        <v>0.97750999999999999</v>
       </c>
       <c r="I5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
       </c>
       <c r="K5">
-        <v>0.97823000000000004</v>
+        <v>0.98638999999999999</v>
       </c>
       <c r="L5">
-        <v>0.97611999999999999</v>
+        <v>0.97685</v>
       </c>
       <c r="M5">
-        <v>0.95126999999999995</v>
+        <v>0.97816000000000003</v>
       </c>
       <c r="N5">
-        <v>0.96353</v>
+        <v>0.97750999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>0.98965999999999998</v>
+        <v>0.97823000000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>0.97790999999999995</v>
+        <v>0.97611999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.98811000000000004</v>
+        <v>0.95126999999999995</v>
       </c>
       <c r="F6" s="1">
-        <v>0.98297999999999996</v>
+        <v>0.96353</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
       </c>
       <c r="K6">
+        <v>0.97823000000000004</v>
+      </c>
+      <c r="L6">
+        <v>0.97611999999999999</v>
+      </c>
+      <c r="M6">
+        <v>0.95126999999999995</v>
+      </c>
+      <c r="N6">
+        <v>0.96353</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7">
         <v>0.98965999999999998</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>0.97790999999999995</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>0.98811000000000004</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>0.98297999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="I7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7">
-        <v>0.97577999999999998</v>
-      </c>
-      <c r="L7">
-        <v>0.95408000000000004</v>
-      </c>
-      <c r="M7">
-        <v>0.95775999999999994</v>
-      </c>
-      <c r="N7">
-        <v>0.95591000000000004</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
       </c>
       <c r="K8">
-        <v>0.95284999999999997</v>
+        <v>0.97577999999999998</v>
       </c>
       <c r="L8">
-        <v>0.91210999999999998</v>
+        <v>0.95408000000000004</v>
       </c>
       <c r="M8">
-        <v>0.91674999999999995</v>
+        <v>0.95775999999999994</v>
       </c>
       <c r="N8">
-        <v>0.91442999999999997</v>
+        <v>0.95591000000000004</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>0.97577999999999998</v>
+        <v>0.98004000000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>0.95408000000000004</v>
+        <v>0.95852999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.95775999999999994</v>
+        <v>0.96931999999999996</v>
       </c>
       <c r="F9" s="1">
-        <v>0.95591000000000004</v>
+        <v>0.96389000000000002</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
       </c>
       <c r="K9">
-        <v>0.98004000000000002</v>
+        <v>0.95284999999999997</v>
       </c>
       <c r="L9">
-        <v>0.95852999999999999</v>
+        <v>0.91210999999999998</v>
       </c>
       <c r="M9">
-        <v>0.96931999999999996</v>
+        <v>0.91674999999999995</v>
       </c>
       <c r="N9">
-        <v>0.96389000000000002</v>
+        <v>0.91442999999999997</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>0.95284999999999997</v>
+        <v>0.97577999999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>0.91210999999999998</v>
+        <v>0.95408000000000004</v>
       </c>
       <c r="E10" s="1">
-        <v>0.91674999999999995</v>
+        <v>0.95775999999999994</v>
       </c>
       <c r="F10" s="1">
-        <v>0.91442999999999997</v>
-      </c>
-      <c r="I10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10">
-        <v>0.92081000000000002</v>
-      </c>
-      <c r="L10">
-        <v>0.86646999999999996</v>
-      </c>
-      <c r="M10">
-        <v>0.84345999999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.85480999999999996</v>
+        <v>0.95591000000000004</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.95284999999999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.91210999999999998</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.91674999999999995</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.91442999999999997</v>
+      </c>
+      <c r="I11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11">
         <v>0.98004000000000002</v>
       </c>
-      <c r="D11" s="1">
+      <c r="L11">
         <v>0.95852999999999999</v>
       </c>
-      <c r="E11" s="1">
+      <c r="M11">
         <v>0.96931999999999996</v>
       </c>
-      <c r="F11" s="1">
+      <c r="N11">
         <v>0.96389000000000002</v>
       </c>
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11">
-        <v>0.89532</v>
-      </c>
-      <c r="L11">
-        <v>0.86584000000000005</v>
-      </c>
-      <c r="M11">
-        <v>0.73514999999999997</v>
-      </c>
-      <c r="N11">
-        <v>0.79515999999999998</v>
-      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
       </c>
       <c r="K12">
-        <v>0.92410000000000003</v>
+        <v>0.92081000000000002</v>
       </c>
       <c r="L12">
-        <v>0.86704000000000003</v>
+        <v>0.86646999999999996</v>
       </c>
       <c r="M12">
-        <v>0.85673999999999995</v>
+        <v>0.84345999999999999</v>
       </c>
       <c r="N12">
-        <v>0.86185999999999996</v>
+        <v>0.85480999999999996</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
       <c r="I13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13">
-        <v>0.86219999999999997</v>
+        <v>0.89532</v>
       </c>
       <c r="L13">
-        <v>0.77649999999999997</v>
+        <v>0.86584000000000005</v>
       </c>
       <c r="M13">
-        <v>0.71409</v>
+        <v>0.73514999999999997</v>
       </c>
       <c r="N13">
-        <v>0.74399000000000004</v>
+        <v>0.79515999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>0.92081000000000002</v>
+        <v>0.92410000000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>0.86646999999999996</v>
+        <v>0.86704000000000003</v>
       </c>
       <c r="E14" s="1">
-        <v>0.84345999999999999</v>
+        <v>0.85673999999999995</v>
       </c>
       <c r="F14" s="1">
-        <v>0.85480999999999996</v>
+        <v>0.86185999999999996</v>
       </c>
       <c r="I14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K14">
-        <v>0.82008999999999999</v>
+        <v>0.92410000000000003</v>
       </c>
       <c r="L14">
-        <v>0.75185000000000002</v>
+        <v>0.86704000000000003</v>
       </c>
       <c r="M14">
-        <v>0.53491</v>
+        <v>0.85673999999999995</v>
       </c>
       <c r="N14">
-        <v>0.62509000000000003</v>
+        <v>0.86185999999999996</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
-        <v>0.89532</v>
+        <v>0.92081000000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>0.86584000000000005</v>
+        <v>0.86646999999999996</v>
       </c>
       <c r="E15" s="1">
-        <v>0.73514999999999997</v>
+        <v>0.84345999999999999</v>
       </c>
       <c r="F15" s="1">
-        <v>0.79515999999999998</v>
+        <v>0.85480999999999996</v>
       </c>
       <c r="I15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
       </c>
       <c r="K15">
-        <v>0.86182999999999998</v>
+        <v>0.86219999999999997</v>
       </c>
       <c r="L15">
-        <v>0.78947000000000001</v>
+        <v>0.77649999999999997</v>
       </c>
       <c r="M15">
-        <v>0.69169000000000003</v>
+        <v>0.71409</v>
       </c>
       <c r="N15">
-        <v>0.73734999999999995</v>
+        <v>0.74399000000000004</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.89532</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.86584000000000005</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.73514999999999997</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.79515999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>0.82008999999999999</v>
+      </c>
+      <c r="L17">
+        <v>0.75185000000000002</v>
+      </c>
+      <c r="M17">
+        <v>0.53491</v>
+      </c>
+      <c r="N17">
+        <v>0.62509000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="I18" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.92410000000000003</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.86704000000000003</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.85673999999999995</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.86185999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <v>0.86182999999999998</v>
+      </c>
+      <c r="L18">
+        <v>0.78947000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.69169000000000003</v>
+      </c>
+      <c r="N18">
+        <v>0.73734999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
@@ -968,7 +3821,7 @@
         <v>0.74399000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -985,7 +3838,7 @@
         <v>0.62509000000000003</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,11 +3858,104 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C18:F18"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C18:F18"/>
     <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B26C77-D4E9-4C7F-BB60-38C2B9FD7D7A}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>